--- a/Excel Mini Games.xlsx
+++ b/Excel Mini Games.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB168EA-94F7-4DB2-8524-C0EC543E9321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8367F886-C7F1-49C2-A949-3C3EC2302CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDFD08BD-B5A0-4F9F-8665-E73890FFDBA2}"/>
   </bookViews>
   <sheets>
-    <sheet name="HIDE BOX" sheetId="1" r:id="rId1"/>
-    <sheet name="DIG" sheetId="3" r:id="rId2"/>
-    <sheet name="GREED" sheetId="4" r:id="rId3"/>
-    <sheet name="STACKING" sheetId="5" r:id="rId4"/>
-    <sheet name="CROSSWORD" sheetId="6" r:id="rId5"/>
-    <sheet name="FLOOR IS LAVA" sheetId="8" r:id="rId6"/>
+    <sheet name="Creator's Message" sheetId="9" r:id="rId1"/>
+    <sheet name="HIDE BOX" sheetId="1" r:id="rId2"/>
+    <sheet name="DIG" sheetId="3" r:id="rId3"/>
+    <sheet name="GREED" sheetId="4" r:id="rId4"/>
+    <sheet name="STACKING" sheetId="5" r:id="rId5"/>
+    <sheet name="CROSSWORD" sheetId="6" r:id="rId6"/>
+    <sheet name="FLOOR IS LAVA" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CROSSWORD!$B$22:$L$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CROSSWORD!$B$22:$L$22</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -3346,6 +3347,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3353,13 +3357,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3368,16 +3369,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -3459,6 +3450,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B0F0"/>
@@ -3532,6 +3533,136 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D442D3-0A8D-4B6C-BEE0-1E2ECA77663E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="8000"/>
+            <a:t>Welcome!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t> show appreciation for this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>valuable, free resource, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please subscribe to my </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>Please also share my videos so we can continue to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>grow the audience and community!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -4014,7 +4145,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4417,7 +4548,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4660,7 +4791,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -4817,7 +4948,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5064,7 +5195,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5561,10 +5692,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71633E5-0395-4C76-8821-0A602BC2791E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FE14E-9415-4E11-B058-2C6F9FA5EB7F}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5600,7 +5746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FF43E1-5A0A-444A-AED8-829D41B006BF}">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -5619,31 +5765,31 @@
       </c>
       <c r="B1" s="3">
         <f ca="1">RAND()</f>
-        <v>7.0442521588853779E-4</v>
+        <v>0.44028114525497219</v>
       </c>
       <c r="C1" s="3">
         <f ca="1">IF(B1=MIN($B$1:$B$20),B1,IF(B1=MIN($B$1:$B$20),B1,IF(B2=MIN($B$1:$B$20),B1,0)))</f>
-        <v>7.0442521588853779E-4</v>
+        <v>0</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">IF(SUM(C1:C5)=0,0,RAND())</f>
-        <v>0.82182450867076295</v>
+        <v>0</v>
       </c>
       <c r="E1" s="3">
         <f t="shared" ref="E1:E11" ca="1" si="0">IF(D1=MAX($D$1:$D$20),D1,0)</f>
-        <v>0.82182450867076295</v>
+        <v>0</v>
       </c>
       <c r="F1" s="3">
         <f ca="1">IF(SUM(E1:E5)=0,0,RAND())</f>
-        <v>0.73636882485717436</v>
+        <v>0</v>
       </c>
       <c r="G1" s="3">
         <f t="shared" ref="G1:G19" ca="1" si="1">IF(F1=MAX($F$1:$F$20),F1,0)</f>
-        <v>0.73636882485717436</v>
+        <v>0</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">IF(SUM(G1:G4)=0,0,RAND())</f>
-        <v>9.6726148478866847E-2</v>
+        <v>0</v>
       </c>
       <c r="I1" s="3">
         <f ca="1">IF(H1=MAX($H$1:$H$20),H1,0)</f>
@@ -5683,15 +5829,15 @@
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:B20" ca="1" si="4">RAND()</f>
-        <v>0.78532877759685671</v>
+        <v>0.97845873678902107</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C20" ca="1" si="5">IF(B2=MIN($B$1:$B$20),B2,IF(B1=MIN($B$1:$B$20),B2,IF(B3=MIN($B$1:$B$20),B2,0)))</f>
-        <v>0.78532877759685671</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">IF(SUM(C1:C5)=0,0,RAND())</f>
-        <v>0.27439850432557222</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -5699,7 +5845,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">IF(SUM(E1:E5)=0,0,RAND())</f>
-        <v>3.2444491243202034E-2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -5707,15 +5853,15 @@
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H13" ca="1" si="6">IF(SUM(G1:G5)=0,0,RAND())</f>
-        <v>0.69877248569720973</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I20" ca="1" si="7">IF(H2=MAX($H$1:$H$20),H2,0)</f>
-        <v>0.69877248569720973</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <f ca="1">IF(SUM(I1:I2)=0,0,RAND())</f>
-        <v>0.57234926137770181</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K20" ca="1" si="8">IF(J2=MAX($J$1:$J$20),J2,0)</f>
@@ -5747,7 +5893,7 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91109326434428883</v>
+        <v>0.70720207551377157</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -5755,7 +5901,7 @@
       </c>
       <c r="D3" s="3">
         <f ca="1">IF(SUM(C2:C6)=0,0,RAND())</f>
-        <v>0.10488114689344019</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -5763,7 +5909,7 @@
       </c>
       <c r="F3" s="3">
         <f ca="1">IF(SUM(E1:E6)=0,0,RAND())</f>
-        <v>0.70623133998445042</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -5779,7 +5925,7 @@
       </c>
       <c r="J3" s="3">
         <f ca="1">IF(SUM(I1:I3)=0,0,RAND())</f>
-        <v>0.54108661303452676</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -5811,7 +5957,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99871219413256818</v>
+        <v>0.31734015109390901</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -5819,7 +5965,7 @@
       </c>
       <c r="D4" s="3">
         <f ca="1">IF(SUM(C2:C7)=0,0,RAND())</f>
-        <v>0.43639059792629686</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -5827,7 +5973,7 @@
       </c>
       <c r="F4" s="3">
         <f ca="1">IF(SUM(E1:E7)=0,0,RAND())</f>
-        <v>3.984125762152968E-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -5843,7 +5989,7 @@
       </c>
       <c r="J4" s="3">
         <f ca="1">IF(SUM(I1:I4)=0,0,RAND())</f>
-        <v>2.1697421021238394E-3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -5875,7 +6021,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5632005611016464</v>
+        <v>0.63891118843013184</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -5907,23 +6053,23 @@
       </c>
       <c r="J5" s="3">
         <f t="shared" ref="J5:J20" ca="1" si="9">IF(SUM(I1:I5)=0,0,RAND())</f>
-        <v>0.99995294420457159</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99995294420457159</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ref="L5:L20" ca="1" si="10">IF(SUM(K1:K5)=0,0,RAND())</f>
-        <v>0.93649539631515089</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93649539631515089</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:N20" ca="1" si="11">IF(SUM(M1:M5)=0,0,RAND())</f>
-        <v>0.39229417943813416</v>
+        <v>0</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5939,7 +6085,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93956636985892639</v>
+        <v>0.29574091048425466</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -5971,7 +6117,7 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0.84669967771072341</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -5979,7 +6125,7 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21315818107101903</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5987,7 +6133,7 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31213998528156073</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6003,14 +6149,14 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19837843820269729</v>
+        <v>0.62384996725990938</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D5:D20" ca="1" si="12">IF(SUM(C3:C7)=0,0,RAND())</f>
+        <f t="shared" ref="D7:D20" ca="1" si="12">IF(SUM(C3:C7)=0,0,RAND())</f>
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -6018,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F5:F20" ca="1" si="13">IF(SUM(E3:E7)=0,0,RAND())</f>
+        <f t="shared" ref="F7:F20" ca="1" si="13">IF(SUM(E3:E7)=0,0,RAND())</f>
         <v>0</v>
       </c>
       <c r="G7" s="3">
@@ -6043,7 +6189,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8430302677795154</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -6051,11 +6197,11 @@
       </c>
       <c r="N7" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48816867004653697</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48816867004653697</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>2</v>
@@ -6067,7 +6213,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54681571390427874</v>
+        <v>0.28466824178334771</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6107,7 +6253,7 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33429093998645631</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" ref="M8:M20" ca="1" si="14">IF(L8=MAX($L$1:$L$20),L8,0)</f>
@@ -6115,7 +6261,7 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36485045382930814</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6131,7 +6277,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34784170254280056</v>
+        <v>0.38607666691908549</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6155,15 +6301,15 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.75500953709806728</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>0.75500953709806728</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>0.41293588936970382</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6171,7 +6317,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.1876648825661863</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6179,7 +6325,7 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16400045659952678</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6195,15 +6341,15 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89260073097581438</v>
+        <v>0.61454693427684792</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.61454693427684792</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.30632321078528146</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -6219,7 +6365,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.53260501098118129</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6227,15 +6373,15 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>0.86972019831278646</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>0.86972019831278646</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1.4354688085423617E-2</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6259,23 +6405,23 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5620109959882962E-2</v>
+        <v>3.1447925943624111E-2</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3.1447925943624111E-2</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.97896758600778666</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.97896758600778666</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.46963991407196326</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6283,7 +6429,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.7103563127685828</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6291,7 +6437,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9.5391420770952751E-3</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6299,7 +6445,7 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1.9397298655665418E-2</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6323,15 +6469,15 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83830351800667269</v>
+        <v>0.41587027317151437</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.41587027317151437</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.94846454355761201</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ref="E12:E20" ca="1" si="15">IF(D12=MAX($D$1:$D$20),D12,0)</f>
@@ -6339,15 +6485,15 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.95859586400728425</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.95859586400728425</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.71230537353493528</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6355,7 +6501,7 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>0.68509132714582144</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6363,7 +6509,7 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.30782204039176586</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6387,7 +6533,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45181430562722047</v>
+        <v>0.90537837277776312</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6395,7 +6541,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.19206753844746749</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6403,7 +6549,7 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.87332056282003145</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6411,7 +6557,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.74259763826865888</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6419,7 +6565,7 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>0.43434144602468594</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6427,7 +6573,7 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.58668952505302807</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6451,7 +6597,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46029715761976175</v>
+        <v>3.6955194558778048E-2</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6459,7 +6605,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.78591615246738022</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6467,7 +6613,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.85026661395449066</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6491,15 +6637,15 @@
       </c>
       <c r="L14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.71907650052342442</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.71907650052342442</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>0.12212873924795098</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6515,7 +6661,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71310669022580497</v>
+        <v>0.7994847856998033</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6523,7 +6669,7 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.80113780895809017</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6531,7 +6677,7 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.74172811449684195</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6563,11 +6709,11 @@
       </c>
       <c r="N15" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>0.944710529370139</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.944710529370139</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>2</v>
@@ -6579,7 +6725,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73737270752211581</v>
+        <v>0.6871904351397552</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6587,7 +6733,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.38655744025110694</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6627,7 +6773,7 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>0.89856203190251138</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6643,7 +6789,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66614776555932975</v>
+        <v>0.60836630915434231</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6691,7 +6837,7 @@
       </c>
       <c r="N17" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>0.61928910617304522</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6707,7 +6853,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76784729698410314</v>
+        <v>0.2876710841345701</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6755,7 +6901,7 @@
       </c>
       <c r="N18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>0.47087400172673688</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6771,7 +6917,7 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43346605646672631</v>
+        <v>0.42012462611077117</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6835,7 +6981,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43639890083751853</v>
+        <v>0.42799280017246433</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6902,12 +7048,12 @@
       <formula>B1=MIN($B$1:$B$20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:I14 B15:K15 B16:M16 B17:O20 J12:O16 B1:O13">
+  <conditionalFormatting sqref="B1:O13 B12:I14 B15:K15 B16:M16 B17:O20 J12:O16">
     <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:I14 J12:O16 C15:K15 C16:M16 C17:O20 C1:O13">
+  <conditionalFormatting sqref="C1:O13 C12:I14 J12:O16 C15:K15 C16:M16 C17:O20">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -6921,7 +7067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE704F6-C1E4-47DB-823A-3C27D43FAA41}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -6941,27 +7087,27 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>799</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" ref="B2:F2" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>691</v>
+        <v>860</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>971</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>791</v>
+        <v>549</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>908</v>
+        <v>969</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
@@ -6974,27 +7120,27 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:F21" ca="1" si="1">RANDBETWEEN(1,1000)</f>
-        <v>551</v>
+        <v>924</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>723</v>
+        <v>521</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>548</v>
+        <v>857</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>454</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
@@ -7007,27 +7153,27 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>703</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>549</v>
+        <v>709</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>973</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>834</v>
+        <v>231</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>670</v>
+        <v>782</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>0</v>
@@ -7040,27 +7186,27 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>776</v>
+        <v>389</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>552</v>
+        <v>456</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>569</v>
+        <v>493</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>324</v>
+        <v>425</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>0</v>
@@ -7073,27 +7219,27 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>568</v>
+        <v>752</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>565</v>
+        <v>278</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>966</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
+        <v>623</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>969</v>
+        <v>882</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>607</v>
+        <v>888</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>0</v>
@@ -7106,27 +7252,27 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>725</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>535</v>
+        <v>811</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>335</v>
+        <v>985</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <v>594</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>686</v>
+        <v>205</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>878</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>0</v>
@@ -7139,27 +7285,27 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>483</v>
+        <v>904</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>180</v>
+        <v>851</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>601</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>404</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>772</v>
+        <v>681</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>0</v>
@@ -7172,27 +7318,27 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>611</v>
+        <v>242</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>348</v>
+        <v>710</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>0</v>
@@ -7205,27 +7351,27 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>912</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>908</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>294</v>
+        <v>863</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>847</v>
+        <v>901</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>605</v>
+        <v>670</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>0</v>
@@ -7238,27 +7384,27 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>535</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>682</v>
+        <v>377</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>612</v>
+        <v>250</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>883</v>
+        <v>683</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>516</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>935</v>
+        <v>838</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>0</v>
@@ -7271,27 +7417,27 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>902</v>
+        <v>757</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>818</v>
+        <v>489</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>834</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>784</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>0</v>
@@ -7304,27 +7450,27 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>329</v>
+        <v>555</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>265</v>
+        <v>961</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>965</v>
+        <v>888</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>446</v>
+        <v>329</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>832</v>
+        <v>725</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>0</v>
@@ -7337,27 +7483,27 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>277</v>
+        <v>472</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>0</v>
@@ -7370,27 +7516,27 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>733</v>
+        <v>810</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>719</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>880</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>525</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>537</v>
+        <v>384</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>0</v>
@@ -7403,27 +7549,27 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>486</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>718</v>
+        <v>811</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>425</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>767</v>
+        <v>155</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>606</v>
+        <v>150</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>0</v>
@@ -7436,27 +7582,27 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>717</v>
+        <v>772</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>704</v>
+        <v>432</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>602</v>
+        <v>792</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>684</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>461</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>0</v>
@@ -7469,27 +7615,27 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>922</v>
+        <v>398</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>729</v>
+        <v>606</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>947</v>
+        <v>662</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>613</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>588</v>
+        <v>117</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>0</v>
@@ -7502,27 +7648,27 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>420</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>816</v>
+        <v>612</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>0</v>
@@ -7535,27 +7681,27 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>740</v>
+        <v>271</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>538</v>
+        <v>417</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>788</v>
+        <v>525</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>794</v>
+        <v>837</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>983</v>
+        <v>236</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>0</v>
@@ -7568,27 +7714,27 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>576</v>
+        <v>360</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>846</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>437</v>
+        <v>627</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>557</v>
+        <v>296</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>308</v>
+        <v>951</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>474</v>
+        <v>572</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
@@ -7639,7 +7785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F07F12E-F0E7-46C8-9CD1-7EDE5607FF56}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -7650,799 +7796,799 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="B1" s="6">
         <f t="shared" ref="B1:B3" ca="1" si="0">B2</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="C1" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="D1" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="E1" s="6">
         <f t="shared" ref="E1:E3" ca="1" si="1">E2</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="F1" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="G1" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="H1" s="6">
         <f ca="1">H2</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="I1" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="B2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="E2" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="F2" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="G2" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">H3</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="I2" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="D3" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="F3" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="G3" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="H3" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="I3" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="B4" s="6">
         <f ca="1">RAND()</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="D4" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="E4" s="6">
         <f ca="1">RAND()</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="F4" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="G4" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">RAND()</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="I4" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B7" ca="1" si="2">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="C5" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E7" ca="1" si="3">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="F5" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="G5" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="H5" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="I5" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="C6" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="D6" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="F6" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="G6" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="H6" s="6">
         <f ca="1">H5</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="I6" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="C7" s="6">
         <f ca="1">B4</f>
-        <v>0.21982863662351459</v>
+        <v>0.24704617701834464</v>
       </c>
       <c r="D7" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="F7" s="6">
         <f ca="1">E4</f>
-        <v>0.18103801206329273</v>
+        <v>0.59569826892196986</v>
       </c>
       <c r="G7" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">H6</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
       <c r="I7" s="6">
         <f ca="1">H4</f>
-        <v>4.0978379752988348E-2</v>
+        <v>5.1672591548620472E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:B10" ca="1" si="4">B9</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="C8" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="D8" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:E10" ca="1" si="5">E9</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="F8" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="G8" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H10" ca="1" si="6">H9</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="I8" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="C9" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="F9" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="G9" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="I9" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="C10" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="D10" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="F10" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="G10" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="I10" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="B11" s="6">
         <f ca="1">RAND()</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="C11" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="D11" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RAND()</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="F11" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="G11" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="H11" s="6">
         <f ca="1">RAND()</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="I11" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" ref="B12:B14" ca="1" si="7">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="C12" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="D12" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ref="E12:E14" ca="1" si="8">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="G12" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ref="H12:H14" ca="1" si="9">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="I12" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="C13" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="D13" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="F13" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="G13" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="I13" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="C14" s="6">
         <f ca="1">B11</f>
-        <v>0.39623981513315587</v>
+        <v>0.68577340246425111</v>
       </c>
       <c r="D14" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="F14" s="7">
         <f ca="1">E11</f>
-        <v>0.31194373386843133</v>
+        <v>2.3332174360606861E-2</v>
       </c>
       <c r="G14" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
       <c r="I14" s="6">
         <f ca="1">H11</f>
-        <v>0.63390238991353254</v>
+        <v>0.31311476025850316</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" ref="B15:B17" ca="1" si="10">B16</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="C15" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="D15" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ref="E15:E17" ca="1" si="11">E16</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="F15" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="G15" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ref="H15:H17" ca="1" si="12">H16</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="I15" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="C16" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="D16" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="F16" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="G16" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="I16" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="C17" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="D17" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="F17" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="G17" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="I17" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="B18" s="6">
         <f ca="1">RAND()</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="C18" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="D18" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="E18" s="6">
         <f ca="1">RAND()</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="F18" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="G18" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="H18" s="6">
         <f ca="1">RAND()</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="I18" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" ref="B19:B21" ca="1" si="13">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="C19" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="D19" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ref="E19:E21" ca="1" si="14">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="F19" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="G19" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ref="H19:H21" ca="1" si="15">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="I19" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="C20" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="D20" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="F20" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="G20" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="I20" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="C21" s="6">
         <f ca="1">B18</f>
-        <v>0.64697299449443391</v>
+        <v>0.26274099505873916</v>
       </c>
       <c r="D21" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="F21" s="6">
         <f ca="1">E18</f>
-        <v>0.98297041442432098</v>
+        <v>0.4573434702265512</v>
       </c>
       <c r="G21" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
       <c r="I21" s="6">
         <f ca="1">H18</f>
-        <v>0.31586299096817505</v>
+        <v>0.56591886452408724</v>
       </c>
     </row>
   </sheetData>
@@ -8457,7 +8603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BEDCF9-DA13-4FFE-8C14-7E48FC988200}">
   <dimension ref="A1:EE810"/>
   <sheetViews>
@@ -8563,109 +8709,109 @@
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="14">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>21</v>
-      </c>
-      <c r="C2" s="19">
+        <v>23</v>
+      </c>
+      <c r="C2" s="14">
         <f t="shared" ref="C2:AA2" ca="1" si="0">RANDBETWEEN(1,50)</f>
-        <v>32</v>
-      </c>
-      <c r="D2" s="19">
+        <v>45</v>
+      </c>
+      <c r="D2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="M2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="P2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Q2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="S2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U2" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="E2" s="19">
+      <c r="V2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F2" s="19">
+        <v>35</v>
+      </c>
+      <c r="W2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="X2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Y2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Z2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AA2" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>37</v>
-      </c>
-      <c r="G2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="H2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="J2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="K2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="L2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="M2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="Q2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="R2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="S2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="T2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="U2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="V2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="W2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="X2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="Y2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="Z2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AA2" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8802,13 +8948,13 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
@@ -8826,15 +8972,15 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
-      <c r="U7" s="16">
+      <c r="U7" s="17">
         <f ca="1">SUMPRODUCT(B2:AA2,B3:AA3)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
@@ -8852,12 +8998,12 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
@@ -8875,12 +9021,12 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
@@ -8898,12 +9044,12 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
@@ -29936,6 +30082,9 @@
     <mergeCell ref="U7:Z10"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AA2">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$U$7=0</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -29945,9 +30094,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$U$7=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S18 S20:S206">
@@ -29967,7 +30113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62D7F28-3D5F-43B7-A591-3DFE583F5D87}">
   <dimension ref="A1:W26"/>
   <sheetViews>
@@ -29983,11 +30129,11 @@
       </c>
       <c r="R1">
         <f t="shared" ref="R1:S11" ca="1" si="0">ROUND(RAND(),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -30003,11 +30149,11 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="0"/>
@@ -30027,7 +30173,7 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -30038,7 +30184,7 @@
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -30061,7 +30207,7 @@
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="0"/>
@@ -30074,7 +30220,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -30088,11 +30234,11 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="0"/>
@@ -30131,7 +30277,7 @@
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -30140,28 +30286,28 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -30171,7 +30317,7 @@
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
         <v>7</v>
@@ -30190,11 +30336,11 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -30220,7 +30366,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -30237,7 +30383,7 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:M19" ca="1" si="3">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -30260,14 +30406,14 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -30281,7 +30427,7 @@
       </c>
       <c r="P10">
         <f t="shared" ref="P10:P16" ca="1" si="4">ROUND(RAND(),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -30311,7 +30457,7 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -30350,7 +30496,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -30374,7 +30520,7 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -30397,7 +30543,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -30407,7 +30553,7 @@
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -30419,7 +30565,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="3"/>
@@ -30430,7 +30576,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -30452,21 +30598,21 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -30488,28 +30634,28 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I22" ca="1" si="5">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -30528,7 +30674,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -30560,7 +30706,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -30586,7 +30732,7 @@
       </c>
       <c r="G19">
         <f t="shared" ref="G19:G25" ca="1" si="7">ROUND(RAND(),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -30615,30 +30761,30 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="U20" s="17" t="s">
+      <c r="U20" s="19" t="s">
         <v>1045</v>
       </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D21">
@@ -30653,18 +30799,18 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="18">
         <f ca="1">SUM(B1:S26)</f>
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
@@ -30682,7 +30828,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -30708,7 +30854,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -30766,34 +30912,34 @@
     <mergeCell ref="U20:W20"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:Q26">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R13">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S26">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S12">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel Mini Games.xlsx
+++ b/Excel Mini Games.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8367F886-C7F1-49C2-A949-3C3EC2302CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60FDDD2-C050-40D7-BE50-CEBDE421E976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDFD08BD-B5A0-4F9F-8665-E73890FFDBA2}"/>
   </bookViews>
@@ -3318,7 +3318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3353,7 +3353,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5192,6 +5191,248 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2362200" cy="2914650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175A421D-6203-47F8-8F1C-A14FAB32F87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="2057400"/>
+          <a:ext cx="2362200" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Objective:</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Put 5 words in the grid as can fit. Pick only from the word bank, use Transpose to make the words vertical (CTRL C, RCB, S, T)</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>You must play words horizontally, then vertically, intersecting the words with common letters.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>The scores by letter are randomized, and are only revealed once you press F9 after placing all the words.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5200,22 +5441,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>263070</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>45356</xdr:rowOff>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>178707</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>213180</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>36287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71091060-D192-4382-83C0-713DFBF883D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DC92AB-C36B-4F23-BE9F-DFF09E7A504D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5223,8 +5464,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12509499" y="235856"/>
-          <a:ext cx="3589565" cy="3097894"/>
+          <a:off x="12382500" y="136072"/>
+          <a:ext cx="4975680" cy="3138715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5343,6 +5584,31 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>The game is over when you are out of moves.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>At that point, you can double click on 'Gray Boxes Remaining' and hit Enter to get your final score (lower the better)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
@@ -5696,7 +5962,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5765,7 +6031,7 @@
       </c>
       <c r="B1" s="3">
         <f ca="1">RAND()</f>
-        <v>0.44028114525497219</v>
+        <v>0.51082003308672319</v>
       </c>
       <c r="C1" s="3">
         <f ca="1">IF(B1=MIN($B$1:$B$20),B1,IF(B1=MIN($B$1:$B$20),B1,IF(B2=MIN($B$1:$B$20),B1,0)))</f>
@@ -5829,7 +6095,7 @@
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:B20" ca="1" si="4">RAND()</f>
-        <v>0.97845873678902107</v>
+        <v>0.9440145234545908</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C20" ca="1" si="5">IF(B2=MIN($B$1:$B$20),B2,IF(B1=MIN($B$1:$B$20),B2,IF(B3=MIN($B$1:$B$20),B2,0)))</f>
@@ -5893,7 +6159,7 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70720207551377157</v>
+        <v>0.96525136046549387</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -5957,7 +6223,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31734015109390901</v>
+        <v>0.260011135800577</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6021,7 +6287,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63891118843013184</v>
+        <v>0.76434496812782815</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6085,7 +6351,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29574091048425466</v>
+        <v>0.24006864625159796</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6149,7 +6415,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62384996725990938</v>
+        <v>0.89726121480330023</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6213,7 +6479,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28466824178334771</v>
+        <v>0.84595583498853733</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6277,7 +6543,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38607666691908549</v>
+        <v>0.37546444930286449</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6301,15 +6567,15 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75500953709806728</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0.75500953709806728</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41293588936970382</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6341,15 +6607,15 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61454693427684792</v>
+        <v>0.94838865124961791</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61454693427684792</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.30632321078528146</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -6365,7 +6631,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53260501098118129</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6373,15 +6639,15 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0.86972019831278646</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.86972019831278646</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4354688085423617E-2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6405,23 +6671,23 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1447925943624111E-2</v>
+        <v>0.40753650638774908</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1447925943624111E-2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.97896758600778666</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97896758600778666</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0.46963991407196326</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6429,7 +6695,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7103563127685828</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6437,7 +6703,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5391420770952751E-3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6445,7 +6711,7 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1.9397298655665418E-2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6469,15 +6735,15 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41587027317151437</v>
+        <v>0.81731921793767481</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41587027317151437</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.94846454355761201</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ref="E12:E20" ca="1" si="15">IF(D12=MAX($D$1:$D$20),D12,0)</f>
@@ -6485,15 +6751,15 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0.95859586400728425</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95859586400728425</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71230537353493528</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6501,7 +6767,7 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0.68509132714582144</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6509,7 +6775,7 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.30782204039176586</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6533,15 +6799,15 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90537837277776312</v>
+        <v>0.41590001097828111</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.41590001097828111</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19206753844746749</v>
+        <v>0.113371856878412</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6549,7 +6815,7 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0.87332056282003145</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6557,7 +6823,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74259763826865888</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6565,7 +6831,7 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43434144602468594</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6573,7 +6839,7 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58668952505302807</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6597,15 +6863,15 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6955194558778048E-2</v>
+        <v>4.9072495195266463E-2</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4.9072495195266463E-2</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.78591615246738022</v>
+        <v>0.60233029626658319</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6613,7 +6879,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0.85026661395449066</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6637,15 +6903,15 @@
       </c>
       <c r="L14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.71907650052342442</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.71907650052342442</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.12212873924795098</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6661,15 +6927,15 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7994847856998033</v>
+        <v>0.44621401436515828</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.44621401436515828</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.80113780895809017</v>
+        <v>0.92876387140495509</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6677,7 +6943,7 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0.74172811449684195</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6709,11 +6975,11 @@
       </c>
       <c r="N15" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.944710529370139</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.944710529370139</v>
+        <v>0</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>2</v>
@@ -6725,7 +6991,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6871904351397552</v>
+        <v>4.9281998604037924E-2</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6733,7 +6999,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38655744025110694</v>
+        <v>0.38241965836611458</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6749,7 +7015,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1.6461736561587226E-2</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6773,7 +7039,7 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.89856203190251138</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6789,7 +7055,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60836630915434231</v>
+        <v>0.37108850030949603</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6797,7 +7063,7 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.19199645516432229</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6813,15 +7079,15 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>0.87946447100245728</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>0.87946447100245728</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>0.63813658144897001</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6837,7 +7103,7 @@
       </c>
       <c r="N17" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61928910617304522</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6853,7 +7119,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2876710841345701</v>
+        <v>0.64125328126941783</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6861,7 +7127,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2.7994316599118885E-2</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -6877,7 +7143,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>0.71505849899899843</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6885,7 +7151,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>0.73389417968392956</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -6901,7 +7167,7 @@
       </c>
       <c r="N18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47087400172673688</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6917,7 +7183,7 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42012462611077117</v>
+        <v>0.63884270407980914</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6925,23 +7191,23 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.96528501081356632</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>0.96528501081356632</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.77887234546929374</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.77887234546929374</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>8.2536159096002204E-2</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -6949,15 +7215,15 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>0.87974900533114309</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>0.87974900533114309</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.50588701478455622</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -6981,7 +7247,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42799280017246433</v>
+        <v>0.39724014520456707</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6997,7 +7263,7 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.23771068695013498</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" ref="G20" ca="1" si="18">IF(F20=MAX($F$1:$F$20),F20,0)</f>
@@ -7005,7 +7271,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>0.4513091570944876</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -7013,7 +7279,7 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>0.21262083284063471</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -7021,19 +7287,19 @@
       </c>
       <c r="L20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.92820836151393793</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.92820836151393793</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>0.33399761733155542</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>0.33399761733155542</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>2</v>
@@ -7087,27 +7353,27 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>313</v>
+        <v>796</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" ref="B2:F2" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>860</v>
+        <v>220</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
+        <v>493</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>549</v>
+        <v>932</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>969</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
@@ -7120,27 +7386,27 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:F21" ca="1" si="1">RANDBETWEEN(1,1000)</f>
-        <v>924</v>
+        <v>463</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>857</v>
+        <v>401</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>972</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
@@ -7153,27 +7419,27 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>983</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>709</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>973</v>
+        <v>265</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>912</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>989</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>782</v>
+        <v>729</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>0</v>
@@ -7186,27 +7452,27 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>791</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>389</v>
+        <v>543</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>456</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>493</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>425</v>
+        <v>632</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>0</v>
@@ -7219,27 +7485,27 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>752</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>278</v>
+        <v>637</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>966</v>
+        <v>540</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>623</v>
+        <v>781</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>888</v>
+        <v>129</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>0</v>
@@ -7252,27 +7518,27 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>985</v>
+        <v>631</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>594</v>
+        <v>240</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>214</v>
+        <v>605</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>0</v>
@@ -7285,27 +7551,27 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>904</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>851</v>
+        <v>487</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>891</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>404</v>
+        <v>152</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
+        <v>397</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>681</v>
+        <v>795</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>0</v>
@@ -7318,27 +7584,27 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>564</v>
+        <v>900</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>242</v>
+        <v>892</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>767</v>
+        <v>430</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>710</v>
+        <v>976</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>474</v>
+        <v>286</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>0</v>
@@ -7351,27 +7617,27 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>945</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>622</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>645</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>863</v>
+        <v>779</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>901</v>
+        <v>511</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>670</v>
+        <v>601</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>0</v>
@@ -7384,27 +7650,27 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>535</v>
+        <v>628</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>377</v>
+        <v>484</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>516</v>
+        <v>609</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>838</v>
+        <v>513</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>0</v>
@@ -7417,27 +7683,27 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>757</v>
+        <v>372</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>646</v>
+        <v>687</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>489</v>
+        <v>857</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>513</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>784</v>
+        <v>219</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>0</v>
@@ -7450,27 +7716,27 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>555</v>
+        <v>292</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>961</v>
+        <v>806</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>888</v>
+        <v>491</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>329</v>
+        <v>760</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>725</v>
+        <v>304</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>0</v>
@@ -7483,27 +7749,27 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>662</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>701</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>472</v>
+        <v>287</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>504</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>937</v>
+        <v>258</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>701</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>0</v>
@@ -7516,27 +7782,27 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>810</v>
+        <v>722</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>941</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>182</v>
+        <v>385</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>525</v>
+        <v>674</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>384</v>
+        <v>281</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>0</v>
@@ -7549,27 +7815,27 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>486</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>811</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>155</v>
+        <v>630</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>736</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>0</v>
@@ -7582,27 +7848,27 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>772</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>432</v>
+        <v>961</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>792</v>
+        <v>456</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>684</v>
+        <v>239</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>0</v>
@@ -7615,27 +7881,27 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>606</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>662</v>
+        <v>790</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>881</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>784</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>0</v>
@@ -7648,27 +7914,27 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>653</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>420</v>
+        <v>999</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>612</v>
+        <v>281</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>0</v>
@@ -7681,27 +7947,27 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>417</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>525</v>
+        <v>798</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>837</v>
+        <v>685</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>760</v>
+        <v>343</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>236</v>
+        <v>591</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>0</v>
@@ -7714,27 +7980,27 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>360</v>
+        <v>837</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>795</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>951</v>
+        <v>126</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
@@ -7796,799 +8062,799 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="B1" s="6">
         <f t="shared" ref="B1:B3" ca="1" si="0">B2</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="C1" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="D1" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="E1" s="6">
         <f t="shared" ref="E1:E3" ca="1" si="1">E2</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="F1" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="G1" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="H1" s="6">
         <f ca="1">H2</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="I1" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="B2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="E2" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="F2" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="G2" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">H3</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="I2" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="D3" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="F3" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="G3" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="H3" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="I3" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="B4" s="6">
         <f ca="1">RAND()</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="D4" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="E4" s="6">
         <f ca="1">RAND()</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="F4" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="G4" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">RAND()</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="I4" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B7" ca="1" si="2">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="C5" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E7" ca="1" si="3">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="F5" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="G5" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="H5" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="I5" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="C6" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="D6" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="F6" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="G6" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="H6" s="6">
         <f ca="1">H5</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="I6" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="C7" s="6">
         <f ca="1">B4</f>
-        <v>0.24704617701834464</v>
+        <v>0.22706967406492418</v>
       </c>
       <c r="D7" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="F7" s="6">
         <f ca="1">E4</f>
-        <v>0.59569826892196986</v>
+        <v>0.31942225342860431</v>
       </c>
       <c r="G7" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">H6</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
       <c r="I7" s="6">
         <f ca="1">H4</f>
-        <v>5.1672591548620472E-2</v>
+        <v>0.65304256814805628</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:B10" ca="1" si="4">B9</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="C8" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="D8" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:E10" ca="1" si="5">E9</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="F8" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="G8" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H10" ca="1" si="6">H9</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="I8" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="C9" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="F9" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="G9" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="I9" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="C10" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="D10" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="F10" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="G10" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="I10" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="B11" s="6">
         <f ca="1">RAND()</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="C11" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="D11" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RAND()</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="F11" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="G11" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="H11" s="6">
         <f ca="1">RAND()</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="I11" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" ref="B12:B14" ca="1" si="7">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="C12" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="D12" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ref="E12:E14" ca="1" si="8">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="G12" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ref="H12:H14" ca="1" si="9">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="I12" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="C13" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="D13" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="F13" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="G13" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="I13" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="C14" s="6">
         <f ca="1">B11</f>
-        <v>0.68577340246425111</v>
+        <v>0.85522757179664055</v>
       </c>
       <c r="D14" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="F14" s="7">
         <f ca="1">E11</f>
-        <v>2.3332174360606861E-2</v>
+        <v>0.45245317328755386</v>
       </c>
       <c r="G14" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
       <c r="I14" s="6">
         <f ca="1">H11</f>
-        <v>0.31311476025850316</v>
+        <v>0.8151199680560286</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" ref="B15:B17" ca="1" si="10">B16</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="C15" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="D15" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ref="E15:E17" ca="1" si="11">E16</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="F15" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="G15" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ref="H15:H17" ca="1" si="12">H16</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="I15" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="C16" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="D16" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="F16" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="G16" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="I16" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="C17" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="D17" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="F17" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="G17" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="I17" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="B18" s="6">
         <f ca="1">RAND()</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="C18" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="D18" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="E18" s="6">
         <f ca="1">RAND()</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="F18" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="G18" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="H18" s="6">
         <f ca="1">RAND()</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="I18" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" ref="B19:B21" ca="1" si="13">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="C19" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="D19" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ref="E19:E21" ca="1" si="14">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="F19" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="G19" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ref="H19:H21" ca="1" si="15">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="I19" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="C20" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="D20" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="F20" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="G20" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="I20" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="C21" s="6">
         <f ca="1">B18</f>
-        <v>0.26274099505873916</v>
+        <v>0.81439793792855442</v>
       </c>
       <c r="D21" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="F21" s="6">
         <f ca="1">E18</f>
-        <v>0.4573434702265512</v>
+        <v>0.94172142797730174</v>
       </c>
       <c r="G21" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
       <c r="I21" s="6">
         <f ca="1">H18</f>
-        <v>0.56591886452408724</v>
+        <v>0.98834049636615118</v>
       </c>
     </row>
   </sheetData>
@@ -8608,7 +8874,7 @@
   <dimension ref="A1:EE810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8622,7 +8888,7 @@
     <col min="28" max="135" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -8705,61 +8971,61 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="14">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C2" s="14">
         <f t="shared" ref="C2:AA2" ca="1" si="0">RANDBETWEEN(1,50)</f>
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O2" s="14">
         <f t="shared" ca="1" si="0"/>
@@ -8767,23 +9033,23 @@
       </c>
       <c r="P2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="R2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="S2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="T2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U2" s="14">
         <f t="shared" ca="1" si="0"/>
@@ -8791,30 +9057,30 @@
       </c>
       <c r="V2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="W2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="X2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="Z2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -8922,18 +9188,35 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC4" s="16">
+        <f ca="1">SUMPRODUCT(B2:AA2,B3:AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+    </row>
+    <row r="6" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -8948,15 +9231,12 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+    </row>
+    <row r="7" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -8972,17 +9252,12 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
-      <c r="U7" s="17">
-        <f ca="1">SUMPRODUCT(B2:AA2,B3:AA3)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+    </row>
+    <row r="8" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -8998,14 +9273,8 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -9021,14 +9290,8 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -9044,14 +9307,8 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-    </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -9068,7 +9325,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -9084,7 +9341,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -9100,7 +9357,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -9116,7 +9373,7 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -9132,7 +9389,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -30076,16 +30333,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B22:L22" xr:uid="{B1BEDCF9-DA13-4FFE-8C14-7E48FC988200}"/>
   <mergeCells count="2">
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="U7:Z10"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AC4:AF7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AA2">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$U$7=0</formula>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$AC$4=0</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30097,7 +30353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S18 S20:S206">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30118,7 +30374,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30129,11 +30385,11 @@
       </c>
       <c r="R1">
         <f t="shared" ref="R1:S11" ca="1" si="0">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -30149,7 +30405,7 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
@@ -30157,7 +30413,7 @@
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -30166,14 +30422,14 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -30200,14 +30456,14 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="0"/>
@@ -30227,28 +30483,28 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <f t="shared" ref="C6:C17" ca="1" si="2">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -30269,7 +30525,7 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
@@ -30277,7 +30533,7 @@
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -30293,14 +30549,14 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -30336,18 +30592,18 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -30366,7 +30622,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -30383,14 +30639,14 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:M19" ca="1" si="3">ROUND(RAND(),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -30399,21 +30655,21 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -30450,14 +30706,14 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -30510,7 +30766,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -30520,7 +30776,7 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -30543,7 +30799,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -30569,14 +30825,14 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -30586,7 +30842,7 @@
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -30598,21 +30854,21 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -30634,14 +30890,14 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I22" ca="1" si="5">ROUND(RAND(),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -30655,7 +30911,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -30674,14 +30930,14 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -30713,7 +30969,7 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -30728,18 +30984,18 @@
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E25" ca="1" si="6">ROUND(RAND(),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19:G25" ca="1" si="7">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -30780,11 +31036,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="U20" s="19" t="s">
+      <c r="U20" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D21">
@@ -30799,21 +31055,21 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U21" s="18">
+        <v>0</v>
+      </c>
+      <c r="U21" s="17">
         <f ca="1">SUM(B1:S26)</f>
-        <v>155</v>
-      </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
+        <v>159</v>
+      </c>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D22">
@@ -30821,14 +31077,14 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -30837,9 +31093,9 @@
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D23">
@@ -30859,9 +31115,9 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D24">
@@ -30876,19 +31132,19 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E25">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -30897,9 +31153,9 @@
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F26">
